--- a/data-raw/Table S4 Characteristics of included studies.xlsx
+++ b/data-raw/Table S4 Characteristics of included studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelabers/Desktop/VIP/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB30B6A2-BEBB-1445-8ACE-F200A5E499CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657975F-B2A8-AC46-A4DC-2C7658ED2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="1220">
   <si>
     <t>#4303</t>
   </si>
@@ -2035,9 +2035,6 @@
   </si>
   <si>
     <t>Lu 2024c</t>
-  </si>
-  <si>
-    <t>Observational- other</t>
   </si>
   <si>
     <t>Nationwide (Vaccine Injury Compensation Program)</t>
@@ -3998,10 +3995,10 @@
   <dimension ref="A1:R512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D259" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A249" sqref="A249"/>
+      <selection pane="bottomRight" activeCell="M279" sqref="M279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4028,58 +4025,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5522,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>5</v>
@@ -5684,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>5</v>
@@ -7574,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>56</v>
@@ -8878,7 +8875,7 @@
         <v>245</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>2</v>
@@ -11005,7 +11002,7 @@
         <v>31</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R130" s="1" t="s">
         <v>14</v>
@@ -12670,7 +12667,7 @@
         <v>31</v>
       </c>
       <c r="Q161" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>6</v>
@@ -14173,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>5</v>
@@ -16099,7 +16096,7 @@
         <v>335</v>
       </c>
       <c r="Q225" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R225" s="1" t="s">
         <v>22</v>
@@ -16741,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="P237" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q237" s="1" t="s">
         <v>5</v>
@@ -16798,7 +16795,7 @@
         <v>335</v>
       </c>
       <c r="Q238" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R238" s="1" t="s">
         <v>6</v>
@@ -17286,7 +17283,7 @@
     </row>
     <row r="248" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B248" s="1">
         <v>10</v>
@@ -18096,13 +18093,13 @@
     </row>
     <row r="263" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B263" s="1">
         <v>327</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1" t="s">
@@ -18933,8 +18930,8 @@
       <c r="L278" s="1">
         <v>0</v>
       </c>
-      <c r="M278" s="1" t="s">
-        <v>669</v>
+      <c r="M278" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="N278" s="1">
         <v>0</v>
@@ -18946,7 +18943,7 @@
         <v>213</v>
       </c>
       <c r="Q278" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R278" s="1" t="s">
         <v>22</v>
@@ -18954,13 +18951,13 @@
     </row>
     <row r="279" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B279" s="1">
         <v>621</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1" t="s">
@@ -19000,7 +18997,7 @@
         <v>31</v>
       </c>
       <c r="Q279" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="R279" s="1" t="s">
         <v>6</v>
@@ -19008,13 +19005,13 @@
     </row>
     <row r="280" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B280" s="1">
         <v>424</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1" t="s">
@@ -19054,7 +19051,7 @@
         <v>31</v>
       </c>
       <c r="Q280" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R280" s="1" t="s">
         <v>6</v>
@@ -19062,13 +19059,13 @@
     </row>
     <row r="281" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B281" s="1">
         <v>425</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1" t="s">
@@ -19108,7 +19105,7 @@
         <v>335</v>
       </c>
       <c r="Q281" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R281" s="1" t="s">
         <v>22</v>
@@ -19116,13 +19113,13 @@
     </row>
     <row r="282" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B282" s="1">
         <v>426</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1" t="s">
@@ -19170,13 +19167,13 @@
     </row>
     <row r="283" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B283" s="1">
         <v>427</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1" t="s">
@@ -19224,13 +19221,13 @@
     </row>
     <row r="284" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B284" s="1">
         <v>428</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1" t="s">
@@ -19267,7 +19264,7 @@
         <v>1</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q284" s="1" t="s">
         <v>5</v>
@@ -19278,13 +19275,13 @@
     </row>
     <row r="285" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B285" s="1">
         <v>78</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1" t="s">
@@ -19324,7 +19321,7 @@
         <v>31</v>
       </c>
       <c r="Q285" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R285" s="1" t="s">
         <v>22</v>
@@ -19332,13 +19329,13 @@
     </row>
     <row r="286" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B286" s="1">
         <v>430</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1" t="s">
@@ -19375,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="P286" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Q286" s="1" t="s">
         <v>148</v>
@@ -19386,13 +19383,13 @@
     </row>
     <row r="287" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B287" s="1">
         <v>26</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1" t="s">
@@ -19429,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="P287" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q287" s="1" t="s">
         <v>5</v>
@@ -19440,13 +19437,13 @@
     </row>
     <row r="288" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B288" s="1">
         <v>27</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1" t="s">
@@ -19494,13 +19491,13 @@
     </row>
     <row r="289" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B289" s="1">
         <v>431</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1" t="s">
@@ -19537,7 +19534,7 @@
         <v>0</v>
       </c>
       <c r="P289" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q289" s="1" t="s">
         <v>5</v>
@@ -19548,13 +19545,13 @@
     </row>
     <row r="290" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B290" s="1">
         <v>432</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1" t="s">
@@ -19599,13 +19596,13 @@
     </row>
     <row r="291" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B291" s="1">
         <v>433</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1" t="s">
@@ -19653,13 +19650,13 @@
     </row>
     <row r="292" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B292" s="1">
         <v>43</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1" t="s">
@@ -19707,13 +19704,13 @@
     </row>
     <row r="293" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B293" s="1">
         <v>145</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1" t="s">
@@ -19761,13 +19758,13 @@
     </row>
     <row r="294" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B294" s="1">
         <v>79</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1" t="s">
@@ -19815,13 +19812,13 @@
     </row>
     <row r="295" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B295" s="1">
         <v>434</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1" t="s">
@@ -19858,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="P295" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q295" s="1" t="s">
         <v>5</v>
@@ -19869,13 +19866,13 @@
     </row>
     <row r="296" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B296" s="1">
         <v>435</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1" t="s">
@@ -19923,13 +19920,13 @@
     </row>
     <row r="297" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B297" s="1">
         <v>438</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1" t="s">
@@ -19977,13 +19974,13 @@
     </row>
     <row r="298" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B298" s="1">
         <v>439</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1" t="s">
@@ -20023,7 +20020,7 @@
         <v>335</v>
       </c>
       <c r="Q298" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R298" s="1" t="s">
         <v>22</v>
@@ -20031,13 +20028,13 @@
     </row>
     <row r="299" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B299" s="1">
         <v>440</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1" t="s">
@@ -20074,7 +20071,7 @@
         <v>1</v>
       </c>
       <c r="P299" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q299" s="1" t="s">
         <v>5</v>
@@ -20085,13 +20082,13 @@
     </row>
     <row r="300" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B300" s="1">
         <v>441</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1" t="s">
@@ -20136,13 +20133,13 @@
     </row>
     <row r="301" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B301" s="1">
         <v>442</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1" t="s">
@@ -20190,13 +20187,13 @@
     </row>
     <row r="302" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B302" s="1">
         <v>147</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1" t="s">
@@ -20233,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="P302" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Q302" s="1" t="s">
         <v>13</v>
@@ -20244,13 +20241,13 @@
     </row>
     <row r="303" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B303" s="1">
         <v>443</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1" t="s">
@@ -20287,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="P303" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q303" s="1" t="s">
         <v>13</v>
@@ -20298,13 +20295,13 @@
     </row>
     <row r="304" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B304" s="1">
         <v>28</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1" t="s">
@@ -20352,13 +20349,13 @@
     </row>
     <row r="305" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B305" s="1">
         <v>29</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1" t="s">
@@ -20406,13 +20403,13 @@
     </row>
     <row r="306" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B306" s="1">
         <v>445</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1" t="s">
@@ -20460,13 +20457,13 @@
     </row>
     <row r="307" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B307" s="1">
         <v>446</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1" t="s">
@@ -20514,13 +20511,13 @@
     </row>
     <row r="308" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B308" s="1">
         <v>447</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1" t="s">
@@ -20568,13 +20565,13 @@
     </row>
     <row r="309" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B309" s="1">
         <v>448</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1" t="s">
@@ -20622,13 +20619,13 @@
     </row>
     <row r="310" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B310" s="1">
         <v>81</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1" t="s">
@@ -20676,13 +20673,13 @@
     </row>
     <row r="311" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B311" s="1">
         <v>449</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1" t="s">
@@ -20719,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="P311" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q311" s="1" t="s">
         <v>5</v>
@@ -20730,13 +20727,13 @@
     </row>
     <row r="312" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B312" s="1">
         <v>451</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1" t="s">
@@ -20784,13 +20781,13 @@
     </row>
     <row r="313" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B313" s="1">
         <v>82</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1" t="s">
@@ -20838,13 +20835,13 @@
     </row>
     <row r="314" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B314" s="1">
         <v>452</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1" t="s">
@@ -20892,13 +20889,13 @@
     </row>
     <row r="315" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B315" s="1">
         <v>148</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1" t="s">
@@ -20935,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="P315" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q315" s="1" t="s">
         <v>5</v>
@@ -20946,13 +20943,13 @@
     </row>
     <row r="316" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B316" s="1">
         <v>453</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1" t="s">
@@ -20980,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N316" s="1">
         <v>0</v>
@@ -21000,13 +20997,13 @@
     </row>
     <row r="317" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B317" s="1">
         <v>454</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1" t="s">
@@ -21054,13 +21051,13 @@
     </row>
     <row r="318" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B318" s="1">
         <v>455</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1" t="s">
@@ -21108,13 +21105,13 @@
     </row>
     <row r="319" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B319" s="1">
         <v>457</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1" t="s">
@@ -21162,13 +21159,13 @@
     </row>
     <row r="320" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B320" s="1">
         <v>44</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1" t="s">
@@ -21205,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="P320" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q320" s="1" t="s">
         <v>5</v>
@@ -21216,13 +21213,13 @@
     </row>
     <row r="321" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B321" s="1">
         <v>458</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1" t="s">
@@ -21259,7 +21256,7 @@
         <v>0</v>
       </c>
       <c r="P321" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q321" s="1" t="s">
         <v>5</v>
@@ -21270,13 +21267,13 @@
     </row>
     <row r="322" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B322" s="1">
         <v>628</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1" t="s">
@@ -21321,13 +21318,13 @@
     </row>
     <row r="323" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B323" s="1">
         <v>149</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1" t="s">
@@ -21375,13 +21372,13 @@
     </row>
     <row r="324" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B324" s="1">
         <v>460</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1" t="s">
@@ -21429,13 +21426,13 @@
     </row>
     <row r="325" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B325" s="1">
         <v>461</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1" t="s">
@@ -21483,13 +21480,13 @@
     </row>
     <row r="326" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B326" s="1">
         <v>45</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1" t="s">
@@ -21537,13 +21534,13 @@
     </row>
     <row r="327" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B327" s="1">
         <v>462</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1" t="s">
@@ -21591,13 +21588,13 @@
     </row>
     <row r="328" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B328" s="1">
         <v>463</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1" t="s">
@@ -21645,13 +21642,13 @@
     </row>
     <row r="329" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B329" s="1">
         <v>464</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1" t="s">
@@ -21688,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="P329" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q329" s="1" t="s">
         <v>5</v>
@@ -21699,13 +21696,13 @@
     </row>
     <row r="330" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B330" s="1">
         <v>465</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1" t="s">
@@ -21753,13 +21750,13 @@
     </row>
     <row r="331" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B331" s="1">
         <v>466</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1" t="s">
@@ -21807,13 +21804,13 @@
     </row>
     <row r="332" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B332" s="1">
         <v>467</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1" t="s">
@@ -21861,13 +21858,13 @@
     </row>
     <row r="333" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B333" s="1">
         <v>468</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1" t="s">
@@ -21915,13 +21912,13 @@
     </row>
     <row r="334" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B334" s="1">
         <v>469</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1" t="s">
@@ -21969,13 +21966,13 @@
     </row>
     <row r="335" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B335" s="1">
         <v>471</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1" t="s">
@@ -22023,13 +22020,13 @@
     </row>
     <row r="336" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B336" s="1">
         <v>632</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1" t="s">
@@ -22077,17 +22074,17 @@
     </row>
     <row r="337" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B337" s="1">
         <v>470</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F337" s="1">
         <v>1</v>
@@ -22120,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="P337" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q337" s="1" t="s">
         <v>5</v>
@@ -22131,13 +22128,13 @@
     </row>
     <row r="338" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B338" s="1">
         <v>472</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1" t="s">
@@ -22185,13 +22182,13 @@
     </row>
     <row r="339" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B339" s="1">
         <v>473</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1" t="s">
@@ -22239,13 +22236,13 @@
     </row>
     <row r="340" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B340" s="1">
         <v>474</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1" t="s">
@@ -22282,7 +22279,7 @@
         <v>0</v>
       </c>
       <c r="P340" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Q340" s="1" t="s">
         <v>5</v>
@@ -22293,13 +22290,13 @@
     </row>
     <row r="341" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B341" s="1">
         <v>83</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1" t="s">
@@ -22347,13 +22344,13 @@
     </row>
     <row r="342" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B342" s="1">
         <v>475</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1" t="s">
@@ -22401,13 +22398,13 @@
     </row>
     <row r="343" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B343" s="1">
         <v>477</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1" t="s">
@@ -22455,13 +22452,13 @@
     </row>
     <row r="344" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B344" s="1">
         <v>85</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1" t="s">
@@ -22509,13 +22506,13 @@
     </row>
     <row r="345" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B345" s="1">
         <v>161</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1" t="s">
@@ -22563,13 +22560,13 @@
     </row>
     <row r="346" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B346" s="1">
         <v>478</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1" t="s">
@@ -22614,13 +22611,13 @@
     </row>
     <row r="347" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B347" s="1">
         <v>479</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1" t="s">
@@ -22668,13 +22665,13 @@
     </row>
     <row r="348" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B348" s="1">
         <v>150</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1" t="s">
@@ -22722,13 +22719,13 @@
     </row>
     <row r="349" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B349" s="1">
         <v>480</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1" t="s">
@@ -22776,13 +22773,13 @@
     </row>
     <row r="350" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B350" s="1">
         <v>637</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1" t="s">
@@ -22830,13 +22827,13 @@
     </row>
     <row r="351" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B351" s="1">
         <v>481</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1" t="s">
@@ -22873,7 +22870,7 @@
         <v>1</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q351" s="1" t="s">
         <v>5</v>
@@ -22884,13 +22881,13 @@
     </row>
     <row r="352" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B352" s="1">
-        <v>1</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1" t="s">
@@ -22935,13 +22932,13 @@
     </row>
     <row r="353" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B353" s="1">
         <v>162</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1" t="s">
@@ -22989,13 +22986,13 @@
     </row>
     <row r="354" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B354" s="1">
         <v>484</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1" t="s">
@@ -23043,13 +23040,13 @@
     </row>
     <row r="355" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B355" s="1">
         <v>485</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1" t="s">
@@ -23086,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="P355" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q355" s="1" t="s">
         <v>148</v>
@@ -23097,13 +23094,13 @@
     </row>
     <row r="356" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B356" s="1">
         <v>633</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1" t="s">
@@ -23143,7 +23140,7 @@
         <v>31</v>
       </c>
       <c r="Q356" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="R356" s="1" t="s">
         <v>6</v>
@@ -23151,13 +23148,13 @@
     </row>
     <row r="357" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B357" s="1">
         <v>487</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1" t="s">
@@ -23205,13 +23202,13 @@
     </row>
     <row r="358" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B358" s="1">
         <v>488</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1" t="s">
@@ -23259,13 +23256,13 @@
     </row>
     <row r="359" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B359" s="1">
         <v>489</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1" t="s">
@@ -23302,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="P359" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R359" s="1" t="s">
         <v>22</v>
@@ -23310,13 +23307,13 @@
     </row>
     <row r="360" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B360" s="1">
         <v>491</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1" t="s">
@@ -23361,13 +23358,13 @@
     </row>
     <row r="361" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B361" s="1">
         <v>492</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1" t="s">
@@ -23415,13 +23412,13 @@
     </row>
     <row r="362" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B362" s="1">
         <v>493</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1" t="s">
@@ -23469,13 +23466,13 @@
     </row>
     <row r="363" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B363" s="1">
         <v>87</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1" t="s">
@@ -23515,7 +23512,7 @@
         <v>31</v>
       </c>
       <c r="Q363" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R363" s="1" t="s">
         <v>6</v>
@@ -23523,13 +23520,13 @@
     </row>
     <row r="364" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B364" s="1">
         <v>494</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1" t="s">
@@ -23577,13 +23574,13 @@
     </row>
     <row r="365" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B365" s="1">
         <v>495</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1" t="s">
@@ -23631,13 +23628,13 @@
     </row>
     <row r="366" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B366" s="1">
         <v>496</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1" t="s">
@@ -23685,13 +23682,13 @@
     </row>
     <row r="367" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B367" s="1">
         <v>497</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1" t="s">
@@ -23739,13 +23736,13 @@
     </row>
     <row r="368" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B368" s="1">
         <v>12</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1" t="s">
@@ -23793,13 +23790,13 @@
     </row>
     <row r="369" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B369" s="1">
         <v>11</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1" t="s">
@@ -23839,7 +23836,7 @@
         <v>63</v>
       </c>
       <c r="Q369" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R369" s="1" t="s">
         <v>6</v>
@@ -23847,13 +23844,13 @@
     </row>
     <row r="370" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B370" s="1">
         <v>88</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1" t="s">
@@ -23901,16 +23898,16 @@
     </row>
     <row r="371" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B371" s="1">
         <v>89</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>62</v>
@@ -23946,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="P371" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q371" s="1" t="s">
         <v>5</v>
@@ -23957,13 +23954,13 @@
     </row>
     <row r="372" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B372" s="1">
         <v>498</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1" t="s">
@@ -24011,13 +24008,13 @@
     </row>
     <row r="373" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B373" s="1">
         <v>90</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1" t="s">
@@ -24065,13 +24062,13 @@
     </row>
     <row r="374" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B374" s="1">
         <v>499</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1" t="s">
@@ -24116,13 +24113,13 @@
     </row>
     <row r="375" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B375" s="1">
         <v>500</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1" t="s">
@@ -24170,13 +24167,13 @@
     </row>
     <row r="376" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B376" s="1">
         <v>483</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1" t="s">
@@ -24224,13 +24221,13 @@
     </row>
     <row r="377" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B377" s="1">
         <v>501</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1" t="s">
@@ -24267,7 +24264,7 @@
         <v>1</v>
       </c>
       <c r="P377" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q377" s="1" t="s">
         <v>5</v>
@@ -24278,13 +24275,13 @@
     </row>
     <row r="378" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B378" s="1">
         <v>630</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1" t="s">
@@ -24324,7 +24321,7 @@
         <v>31</v>
       </c>
       <c r="Q378" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R378" s="1" t="s">
         <v>22</v>
@@ -24332,13 +24329,13 @@
     </row>
     <row r="379" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B379" s="1">
         <v>639</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1" t="s">
@@ -24383,13 +24380,13 @@
     </row>
     <row r="380" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B380" s="1">
         <v>151</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1" t="s">
@@ -24437,13 +24434,13 @@
     </row>
     <row r="381" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B381" s="1">
         <v>92</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1" t="s">
@@ -24491,13 +24488,13 @@
     </row>
     <row r="382" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B382" s="1">
         <v>502</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1" t="s">
@@ -24545,13 +24542,13 @@
     </row>
     <row r="383" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B383" s="1">
         <v>503</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1" t="s">
@@ -24599,13 +24596,13 @@
     </row>
     <row r="384" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B384" s="1">
         <v>504</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1" t="s">
@@ -24650,13 +24647,13 @@
     </row>
     <row r="385" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B385" s="1">
         <v>505</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1" t="s">
@@ -24701,13 +24698,13 @@
     </row>
     <row r="386" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B386" s="1">
         <v>152</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1" t="s">
@@ -24755,17 +24752,17 @@
     </row>
     <row r="387" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B387" s="1">
         <v>631</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F387" s="1">
         <v>1</v>
@@ -24809,13 +24806,13 @@
     </row>
     <row r="388" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B388" s="1">
         <v>30</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1" t="s">
@@ -24863,13 +24860,13 @@
     </row>
     <row r="389" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B389" s="1">
         <v>31</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1" t="s">
@@ -24917,13 +24914,13 @@
     </row>
     <row r="390" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B390" s="1">
         <v>509</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1" t="s">
@@ -24971,13 +24968,13 @@
     </row>
     <row r="391" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B391" s="1">
         <v>510</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1" t="s">
@@ -25025,13 +25022,13 @@
     </row>
     <row r="392" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B392" s="1">
         <v>94</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1" t="s">
@@ -25079,13 +25076,13 @@
     </row>
     <row r="393" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B393" s="1">
         <v>95</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1" t="s">
@@ -25133,13 +25130,13 @@
     </row>
     <row r="394" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B394" s="1">
         <v>623</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1" t="s">
@@ -25187,13 +25184,13 @@
     </row>
     <row r="395" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B395" s="1">
         <v>512</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1" t="s">
@@ -25230,7 +25227,7 @@
         <v>0</v>
       </c>
       <c r="P395" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Q395" s="1" t="s">
         <v>5</v>
@@ -25241,13 +25238,13 @@
     </row>
     <row r="396" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B396" s="1">
         <v>513</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1" t="s">
@@ -25295,13 +25292,13 @@
     </row>
     <row r="397" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B397" s="1">
         <v>514</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1" t="s">
@@ -25349,13 +25346,13 @@
     </row>
     <row r="398" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B398" s="1">
         <v>515</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1" t="s">
@@ -25403,13 +25400,13 @@
     </row>
     <row r="399" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B399" s="1">
         <v>516</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1" t="s">
@@ -25457,13 +25454,13 @@
     </row>
     <row r="400" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B400" s="1">
         <v>518</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1" t="s">
@@ -25511,13 +25508,13 @@
     </row>
     <row r="401" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B401" s="1">
         <v>519</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1" t="s">
@@ -25565,13 +25562,13 @@
     </row>
     <row r="402" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B402" s="1">
         <v>520</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1" t="s">
@@ -25616,13 +25613,13 @@
     </row>
     <row r="403" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B403" s="1">
         <v>521</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1" t="s">
@@ -25662,7 +25659,7 @@
         <v>164</v>
       </c>
       <c r="Q403" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R403" s="1" t="s">
         <v>22</v>
@@ -25670,13 +25667,13 @@
     </row>
     <row r="404" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B404" s="1">
         <v>154</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1" t="s">
@@ -25724,13 +25721,13 @@
     </row>
     <row r="405" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B405" s="1">
         <v>524</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1" t="s">
@@ -25778,13 +25775,13 @@
     </row>
     <row r="406" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B406" s="1">
         <v>525</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D406" s="1"/>
       <c r="E406" s="1" t="s">
@@ -25829,13 +25826,13 @@
     </row>
     <row r="407" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B407" s="1">
         <v>526</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D407" s="1"/>
       <c r="E407" s="1" t="s">
@@ -25883,13 +25880,13 @@
     </row>
     <row r="408" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B408" s="1">
         <v>527</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D408" s="1"/>
       <c r="E408" s="1" t="s">
@@ -25937,13 +25934,13 @@
     </row>
     <row r="409" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B409" s="1">
         <v>528</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D409" s="1"/>
       <c r="E409" s="1" t="s">
@@ -25991,13 +25988,13 @@
     </row>
     <row r="410" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B410" s="1">
         <v>529</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D410" s="1"/>
       <c r="E410" s="1" t="s">
@@ -26045,13 +26042,13 @@
     </row>
     <row r="411" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B411" s="1">
         <v>530</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D411" s="1"/>
       <c r="E411" s="1" t="s">
@@ -26091,7 +26088,7 @@
         <v>31</v>
       </c>
       <c r="Q411" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="R411" s="1" t="s">
         <v>22</v>
@@ -26099,13 +26096,13 @@
     </row>
     <row r="412" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B412" s="1">
         <v>532</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D412" s="1"/>
       <c r="E412" s="1" t="s">
@@ -26153,13 +26150,13 @@
     </row>
     <row r="413" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B413" s="1">
         <v>531</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D413" s="1"/>
       <c r="E413" s="1" t="s">
@@ -26207,13 +26204,13 @@
     </row>
     <row r="414" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B414" s="1">
         <v>533</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D414" s="1"/>
       <c r="E414" s="1" t="s">
@@ -26261,13 +26258,13 @@
     </row>
     <row r="415" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B415" s="1">
         <v>534</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D415" s="1"/>
       <c r="E415" s="1" t="s">
@@ -26315,13 +26312,13 @@
     </row>
     <row r="416" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B416" s="1">
         <v>34</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D416" s="1"/>
       <c r="E416" s="1" t="s">
@@ -26369,13 +26366,13 @@
     </row>
     <row r="417" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B417" s="1">
         <v>97</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D417" s="1"/>
       <c r="E417" s="1" t="s">
@@ -26420,13 +26417,13 @@
     </row>
     <row r="418" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B418" s="1">
         <v>535</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D418" s="1"/>
       <c r="E418" s="1" t="s">
@@ -26474,13 +26471,13 @@
     </row>
     <row r="419" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B419" s="1">
         <v>98</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D419" s="1"/>
       <c r="E419" s="1" t="s">
@@ -26528,13 +26525,13 @@
     </row>
     <row r="420" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B420" s="1">
         <v>99</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D420" s="1"/>
       <c r="E420" s="1" t="s">
@@ -26582,13 +26579,13 @@
     </row>
     <row r="421" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B421" s="1">
         <v>536</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D421" s="1"/>
       <c r="E421" s="1" t="s">
@@ -26636,13 +26633,13 @@
     </row>
     <row r="422" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B422" s="1">
         <v>537</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D422" s="1"/>
       <c r="E422" s="1" t="s">
@@ -26690,17 +26687,17 @@
     </row>
     <row r="423" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B423" s="1">
         <v>539</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D423" s="1"/>
       <c r="E423" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F423" s="1">
         <v>0</v>
@@ -26744,13 +26741,13 @@
     </row>
     <row r="424" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B424" s="1">
         <v>636</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D424" s="1"/>
       <c r="E424" s="1" t="s">
@@ -26798,13 +26795,13 @@
     </row>
     <row r="425" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B425" s="1">
         <v>2</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D425" s="1"/>
       <c r="E425" s="1" t="s">
@@ -26841,7 +26838,7 @@
         <v>1</v>
       </c>
       <c r="P425" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q425" s="1" t="s">
         <v>5</v>
@@ -26852,13 +26849,13 @@
     </row>
     <row r="426" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B426" s="1">
         <v>541</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D426" s="1"/>
       <c r="E426" s="1" t="s">
@@ -26898,7 +26895,7 @@
         <v>196</v>
       </c>
       <c r="Q426" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R426" s="1" t="s">
         <v>6</v>
@@ -26906,13 +26903,13 @@
     </row>
     <row r="427" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B427" s="1">
         <v>542</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D427" s="1"/>
       <c r="E427" s="1" t="s">
@@ -26960,13 +26957,13 @@
     </row>
     <row r="428" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B428" s="1">
         <v>543</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D428" s="1"/>
       <c r="E428" s="1" t="s">
@@ -27014,13 +27011,13 @@
     </row>
     <row r="429" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B429" s="1">
         <v>544</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D429" s="1"/>
       <c r="E429" s="1" t="s">
@@ -27065,17 +27062,17 @@
     </row>
     <row r="430" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B430" s="1">
         <v>545</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D430" s="1"/>
       <c r="E430" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F430" s="1">
         <v>1</v>
@@ -27119,13 +27116,13 @@
     </row>
     <row r="431" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B431" s="1">
         <v>100</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D431" s="1"/>
       <c r="E431" s="1" t="s">
@@ -27171,13 +27168,13 @@
     </row>
     <row r="432" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B432" s="1">
         <v>546</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D432" s="1"/>
       <c r="E432" s="1" t="s">
@@ -27225,13 +27222,13 @@
     </row>
     <row r="433" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B433" s="1">
         <v>547</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D433" s="1"/>
       <c r="E433" s="1" t="s">
@@ -27279,13 +27276,13 @@
     </row>
     <row r="434" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B434" s="1">
         <v>548</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D434" s="1"/>
       <c r="E434" s="1" t="s">
@@ -27333,13 +27330,13 @@
     </row>
     <row r="435" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B435" s="1">
         <v>634</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D435" s="1"/>
       <c r="E435" s="1" t="s">
@@ -27385,13 +27382,13 @@
     </row>
     <row r="436" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B436" s="1">
         <v>550</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D436" s="1"/>
       <c r="E436" s="1" t="s">
@@ -27439,13 +27436,13 @@
     </row>
     <row r="437" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B437" s="1">
         <v>549</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D437" s="1"/>
       <c r="E437" s="1" t="s">
@@ -27490,13 +27487,13 @@
     </row>
     <row r="438" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B438" s="1">
         <v>551</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D438" s="1"/>
       <c r="E438" s="1" t="s">
@@ -27544,13 +27541,13 @@
     </row>
     <row r="439" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B439" s="1">
         <v>35</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D439" s="1"/>
       <c r="E439" s="1" t="s">
@@ -27598,13 +27595,13 @@
     </row>
     <row r="440" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B440" s="1">
         <v>553</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D440" s="1"/>
       <c r="E440" s="1" t="s">
@@ -27652,13 +27649,13 @@
     </row>
     <row r="441" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B441" s="1">
         <v>554</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D441" s="1"/>
       <c r="E441" s="1" t="s">
@@ -27698,7 +27695,7 @@
         <v>119</v>
       </c>
       <c r="Q441" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R441" s="1" t="s">
         <v>22</v>
@@ -27706,13 +27703,13 @@
     </row>
     <row r="442" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B442" s="1">
         <v>555</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D442" s="1"/>
       <c r="E442" s="1" t="s">
@@ -27760,13 +27757,13 @@
     </row>
     <row r="443" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B443" s="1">
         <v>13</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D443" s="1"/>
       <c r="E443" s="1" t="s">
@@ -27814,13 +27811,13 @@
     </row>
     <row r="444" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B444" s="1">
         <v>557</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D444" s="1"/>
       <c r="E444" s="1" t="s">
@@ -27866,13 +27863,13 @@
     </row>
     <row r="445" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B445" s="1">
         <v>558</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D445" s="1"/>
       <c r="E445" s="1" t="s">
@@ -27920,13 +27917,13 @@
     </row>
     <row r="446" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B446" s="1">
         <v>560</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D446" s="1"/>
       <c r="E446" s="1" t="s">
@@ -27974,13 +27971,13 @@
     </row>
     <row r="447" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B447" s="1">
         <v>101</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D447" s="1"/>
       <c r="E447" s="1" t="s">
@@ -28028,13 +28025,13 @@
     </row>
     <row r="448" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B448" s="1">
         <v>561</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D448" s="1"/>
       <c r="E448" s="1" t="s">
@@ -28082,13 +28079,13 @@
     </row>
     <row r="449" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B449" s="1">
         <v>562</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D449" s="1"/>
       <c r="E449" s="1" t="s">
@@ -28136,13 +28133,13 @@
     </row>
     <row r="450" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B450" s="1">
         <v>102</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D450" s="1"/>
       <c r="E450" s="1" t="s">
@@ -28190,13 +28187,13 @@
     </row>
     <row r="451" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B451" s="1">
         <v>564</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D451" s="1"/>
       <c r="E451" s="1" t="s">
@@ -28233,7 +28230,7 @@
         <v>0</v>
       </c>
       <c r="P451" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Q451" s="1" t="s">
         <v>5</v>
@@ -28244,13 +28241,13 @@
     </row>
     <row r="452" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B452" s="1">
         <v>565</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D452" s="1"/>
       <c r="E452" s="1" t="s">
@@ -28298,13 +28295,13 @@
     </row>
     <row r="453" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B453" s="1">
         <v>566</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D453" s="1"/>
       <c r="E453" s="1" t="s">
@@ -28352,13 +28349,13 @@
     </row>
     <row r="454" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B454" s="1">
         <v>567</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D454" s="1"/>
       <c r="E454" s="1" t="s">
@@ -28406,13 +28403,13 @@
     </row>
     <row r="455" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B455" s="1">
         <v>119</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D455" s="1"/>
       <c r="E455" s="1" t="s">
@@ -28460,13 +28457,13 @@
     </row>
     <row r="456" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B456" s="1">
         <v>568</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D456" s="1"/>
       <c r="E456" s="1" t="s">
@@ -28514,13 +28511,13 @@
     </row>
     <row r="457" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B457" s="1">
         <v>569</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D457" s="1"/>
       <c r="E457" s="1" t="s">
@@ -28568,13 +28565,13 @@
     </row>
     <row r="458" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B458" s="1">
         <v>570</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D458" s="1"/>
       <c r="E458" s="1" t="s">
@@ -28619,13 +28616,13 @@
     </row>
     <row r="459" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B459" s="1">
         <v>103</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D459" s="1"/>
       <c r="E459" s="1" t="s">
@@ -28665,7 +28662,7 @@
         <v>196</v>
       </c>
       <c r="Q459" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R459" s="1" t="s">
         <v>6</v>
@@ -28673,13 +28670,13 @@
     </row>
     <row r="460" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B460" s="1">
         <v>104</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D460" s="1"/>
       <c r="E460" s="1" t="s">
@@ -28716,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="P460" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q460" s="1" t="s">
         <v>5</v>
@@ -28727,13 +28724,13 @@
     </row>
     <row r="461" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B461" s="1">
         <v>571</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D461" s="1"/>
       <c r="E461" s="1" t="s">
@@ -28770,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="P461" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q461" s="1" t="s">
         <v>27</v>
@@ -28781,13 +28778,13 @@
     </row>
     <row r="462" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B462" s="1">
         <v>572</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D462" s="1"/>
       <c r="E462" s="1" t="s">
@@ -28835,13 +28832,13 @@
     </row>
     <row r="463" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B463" s="1">
         <v>573</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D463" s="1"/>
       <c r="E463" s="1" t="s">
@@ -28886,13 +28883,13 @@
     </row>
     <row r="464" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B464" s="1">
         <v>576</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D464" s="1"/>
       <c r="E464" s="1" t="s">
@@ -28929,7 +28926,7 @@
         <v>0</v>
       </c>
       <c r="P464" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q464" s="1" t="s">
         <v>5</v>
@@ -28940,13 +28937,13 @@
     </row>
     <row r="465" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B465" s="1">
         <v>577</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D465" s="1"/>
       <c r="E465" s="1" t="s">
@@ -28994,13 +28991,13 @@
     </row>
     <row r="466" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B466" s="1">
         <v>578</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D466" s="1"/>
       <c r="E466" s="1" t="s">
@@ -29048,13 +29045,13 @@
     </row>
     <row r="467" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B467" s="1">
         <v>579</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D467" s="1"/>
       <c r="E467" s="1" t="s">
@@ -29091,7 +29088,7 @@
         <v>1</v>
       </c>
       <c r="P467" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q467" s="1" t="s">
         <v>5</v>
@@ -29102,13 +29099,13 @@
     </row>
     <row r="468" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B468" s="1">
         <v>159</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D468" s="1"/>
       <c r="E468" s="1" t="s">
@@ -29156,13 +29153,13 @@
     </row>
     <row r="469" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B469" s="1">
         <v>580</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D469" s="1"/>
       <c r="E469" s="1" t="s">
@@ -29207,13 +29204,13 @@
     </row>
     <row r="470" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B470" s="1">
         <v>581</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D470" s="1"/>
       <c r="E470" s="1" t="s">
@@ -29261,13 +29258,13 @@
     </row>
     <row r="471" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B471" s="1">
         <v>46</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D471" s="1"/>
       <c r="E471" s="1" t="s">
@@ -29315,13 +29312,13 @@
     </row>
     <row r="472" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B472" s="1">
         <v>582</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D472" s="1"/>
       <c r="E472" s="1" t="s">
@@ -29358,7 +29355,7 @@
         <v>0</v>
       </c>
       <c r="P472" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Q472" s="1" t="s">
         <v>5</v>
@@ -29369,13 +29366,13 @@
     </row>
     <row r="473" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B473" s="1">
         <v>583</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D473" s="1"/>
       <c r="E473" s="1" t="s">
@@ -29423,13 +29420,13 @@
     </row>
     <row r="474" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B474" s="1">
         <v>105</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D474" s="1"/>
       <c r="E474" s="1" t="s">
@@ -29477,13 +29474,13 @@
     </row>
     <row r="475" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B475" s="1">
         <v>584</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D475" s="1"/>
       <c r="E475" s="1" t="s">
@@ -29531,13 +29528,13 @@
     </row>
     <row r="476" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B476" s="1">
         <v>585</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D476" s="1"/>
       <c r="E476" s="1" t="s">
@@ -29574,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="P476" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q476" s="1" t="s">
         <v>5</v>
@@ -29585,13 +29582,13 @@
     </row>
     <row r="477" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B477" s="1">
         <v>629</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D477" s="1"/>
       <c r="E477" s="1" t="s">
@@ -29639,13 +29636,13 @@
     </row>
     <row r="478" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B478" s="1">
         <v>587</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D478" s="1"/>
       <c r="E478" s="1" t="s">
@@ -29693,13 +29690,13 @@
     </row>
     <row r="479" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B479" s="1">
         <v>37</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D479" s="1"/>
       <c r="E479" s="1" t="s">
@@ -29747,13 +29744,13 @@
     </row>
     <row r="480" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B480" s="1">
         <v>589</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D480" s="1"/>
       <c r="E480" s="1" t="s">
@@ -29801,13 +29798,13 @@
     </row>
     <row r="481" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B481" s="1">
         <v>590</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D481" s="1"/>
       <c r="E481" s="1" t="s">
@@ -29855,13 +29852,13 @@
     </row>
     <row r="482" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B482" s="1">
         <v>591</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D482" s="1"/>
       <c r="E482" s="1" t="s">
@@ -29909,13 +29906,13 @@
     </row>
     <row r="483" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B483" s="1">
         <v>592</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D483" s="1"/>
       <c r="E483" s="1" t="s">
@@ -29963,13 +29960,13 @@
     </row>
     <row r="484" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B484" s="1">
         <v>106</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D484" s="1"/>
       <c r="E484" s="1" t="s">
@@ -30017,13 +30014,13 @@
     </row>
     <row r="485" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B485" s="1">
         <v>593</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D485" s="1"/>
       <c r="E485" s="1" t="s">
@@ -30063,7 +30060,7 @@
         <v>145</v>
       </c>
       <c r="Q485" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="R485" s="1" t="s">
         <v>6</v>
@@ -30071,13 +30068,13 @@
     </row>
     <row r="486" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B486" s="1">
         <v>595</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D486" s="1"/>
       <c r="E486" s="1" t="s">
@@ -30125,13 +30122,13 @@
     </row>
     <row r="487" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B487" s="1">
         <v>596</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D487" s="1"/>
       <c r="E487" s="1" t="s">
@@ -30171,7 +30168,7 @@
         <v>31</v>
       </c>
       <c r="Q487" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R487" s="1" t="s">
         <v>6</v>
@@ -30179,13 +30176,13 @@
     </row>
     <row r="488" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B488" s="1">
         <v>598</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D488" s="1"/>
       <c r="E488" s="1" t="s">
@@ -30222,7 +30219,7 @@
         <v>0</v>
       </c>
       <c r="P488" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R488" s="1" t="s">
         <v>6</v>
@@ -30230,13 +30227,13 @@
     </row>
     <row r="489" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B489" s="1">
         <v>643</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D489" s="1"/>
       <c r="E489" s="1" t="s">
@@ -30284,13 +30281,13 @@
     </row>
     <row r="490" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B490" s="1">
         <v>599</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D490" s="1"/>
       <c r="E490" s="1" t="s">
@@ -30335,13 +30332,13 @@
     </row>
     <row r="491" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B491" s="1">
         <v>600</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D491" s="1"/>
       <c r="E491" s="1" t="s">
@@ -30386,13 +30383,13 @@
     </row>
     <row r="492" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B492" s="1">
         <v>601</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D492" s="1"/>
       <c r="E492" s="1" t="s">
@@ -30437,13 +30434,13 @@
     </row>
     <row r="493" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B493" s="1">
         <v>602</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D493" s="1"/>
       <c r="E493" s="1" t="s">
@@ -30483,7 +30480,7 @@
         <v>31</v>
       </c>
       <c r="Q493" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R493" s="1" t="s">
         <v>6</v>
@@ -30491,13 +30488,13 @@
     </row>
     <row r="494" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B494" s="1">
         <v>603</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D494" s="1"/>
       <c r="E494" s="1" t="s">
@@ -30545,13 +30542,13 @@
     </row>
     <row r="495" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B495" s="1">
         <v>604</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D495" s="1"/>
       <c r="E495" s="1" t="s">
@@ -30599,13 +30596,13 @@
     </row>
     <row r="496" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B496" s="1">
         <v>605</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D496" s="1"/>
       <c r="E496" s="1" t="s">
@@ -30653,13 +30650,13 @@
     </row>
     <row r="497" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B497" s="1">
         <v>120</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D497" s="1"/>
       <c r="E497" s="1" t="s">
@@ -30704,13 +30701,13 @@
     </row>
     <row r="498" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B498" s="1">
         <v>606</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D498" s="1"/>
       <c r="E498" s="1" t="s">
@@ -30758,13 +30755,13 @@
     </row>
     <row r="499" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B499" s="1">
         <v>107</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D499" s="1"/>
       <c r="E499" s="1" t="s">
@@ -30812,13 +30809,13 @@
     </row>
     <row r="500" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B500" s="1">
         <v>607</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D500" s="1"/>
       <c r="E500" s="1" t="s">
@@ -30866,35 +30863,35 @@
     </row>
     <row r="501" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B501" s="1">
         <v>609</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D501" s="1"/>
       <c r="E501" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K501" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="L501" s="1">
         <v>0</v>
@@ -30920,13 +30917,13 @@
     </row>
     <row r="502" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B502" s="1">
         <v>610</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D502" s="1"/>
       <c r="E502" s="1" t="s">
@@ -30974,13 +30971,13 @@
     </row>
     <row r="503" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B503" s="1">
         <v>611</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D503" s="1"/>
       <c r="E503" s="1" t="s">
@@ -31017,7 +31014,7 @@
         <v>0</v>
       </c>
       <c r="P503" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R503" s="1" t="s">
         <v>22</v>
@@ -31025,13 +31022,13 @@
     </row>
     <row r="504" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B504" s="1">
         <v>612</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D504" s="1"/>
       <c r="E504" s="1" t="s">
@@ -31079,13 +31076,13 @@
     </row>
     <row r="505" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B505" s="1">
         <v>613</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D505" s="1"/>
       <c r="E505" s="1" t="s">
@@ -31122,10 +31119,10 @@
         <v>0</v>
       </c>
       <c r="P505" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R505" s="1" t="s">
         <v>6</v>
@@ -31133,13 +31130,13 @@
     </row>
     <row r="506" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B506" s="1">
         <v>614</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D506" s="1"/>
       <c r="E506" s="1" t="s">
@@ -31176,7 +31173,7 @@
         <v>0</v>
       </c>
       <c r="P506" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Q506" s="1" t="s">
         <v>148</v>
@@ -31187,13 +31184,13 @@
     </row>
     <row r="507" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B507" s="1">
         <v>615</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D507" s="1"/>
       <c r="E507" s="1" t="s">
@@ -31241,13 +31238,13 @@
     </row>
     <row r="508" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B508" s="1">
         <v>616</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D508" s="1"/>
       <c r="E508" s="1" t="s">
@@ -31295,13 +31292,13 @@
     </row>
     <row r="509" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B509" s="1">
         <v>617</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D509" s="1"/>
       <c r="E509" s="1" t="s">
@@ -31349,13 +31346,13 @@
     </row>
     <row r="510" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B510" s="1">
         <v>619</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D510" s="1"/>
       <c r="E510" s="1" t="s">
@@ -31403,13 +31400,13 @@
     </row>
     <row r="511" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B511" s="1">
         <v>618</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D511" s="1"/>
       <c r="E511" s="1" t="s">
@@ -31457,13 +31454,13 @@
     </row>
     <row r="512" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B512" s="1">
         <v>620</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D512" s="1"/>
       <c r="E512" s="1" t="s">
